--- a/GeoTollExcelLogin.xlsx
+++ b/GeoTollExcelLogin.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>UserName</t>
   </si>
@@ -35,16 +35,10 @@
     <t>udupaakshaya+QATest@gmail.com</t>
   </si>
   <si>
-    <t>udupaakshayaQATest@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> New@123</t>
   </si>
   <si>
     <t xml:space="preserve"> New@1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New@12</t>
   </si>
 </sst>
 </file>
@@ -373,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,31 +392,15 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
